--- a/gre.xlsx
+++ b/gre.xlsx
@@ -27552,7 +27552,7 @@
         </is>
       </c>
       <c r="D1356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1357">
